--- a/DDAf_2024_Tableau_annexe_Tab35.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab35.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAD336FA-86A9-40D1-842A-E68022456F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7893F5F4-2F5F-45D0-AA06-B02D30961490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{89EEB52A-408B-4584-887A-54994853BA33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9ACD4744-14E3-46D0-92F7-230FF28EA94C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab35" sheetId="1" r:id="rId1"/>
@@ -1443,7 +1443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBA20E5-6DEC-4BB7-A963-AC2581538448}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB25C5FE-8044-4451-B126-99583BCDCDE8}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1451,15 +1451,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="77" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="4" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1488,7 +1488,7 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2" spans="1:26" ht="126.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" ht="147" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>27</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>7.4958786179738803</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>29</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>23.340449017256201</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>31</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>19.423658898591</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>33</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>12.1552550891561</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>35</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>38</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>3.8546414588872202</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>40</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>18.076633569111898</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>42</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>22.6368444807662</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>44</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>46</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>48</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>13.836677349778901</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>50</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>2.74895733659557</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>52</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>10.868085058960199</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>54</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>56</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>2.8573616176736198</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>58</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>60</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>10.102800188182201</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>62</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>64</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>66</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>48</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>8.8230444064318796</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>69</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>8.9464119612774304</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>71</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>73</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>75</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>4.3948407152199396</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>77</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>13.8010386369972</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>79</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>3.6632051783072002</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>81</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>20.6335123775286</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>83</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>6.7674651263756003</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>85</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>28.5184498423883</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>87</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>34.473038127627397</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>89</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>91</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>93</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>5.7166812892461802</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>95</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>4.5078603183197696</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
         <v>48</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>7.6985124204193696</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>98</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>100</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>22.7635521002736</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>102</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>104</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>106</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>108</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>20.487630928762901</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
         <v>48</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>22.537037428564101</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>111</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>6.0587981226372198</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>113</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>13.2718046078275</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>115</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>11.618376238731701</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>117</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>7.0957226212747697</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>119</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>10.794070546250399</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>121</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>9.58910415440352</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>123</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>7.4038028307237704</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>125</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>5.0985706085500002</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>127</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>129</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>3.5564320833992098</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>131</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>133</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>27.587995952425501</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>135</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>4.6274717911514998</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>137</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>7.1561842037168697</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>139</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>7.6848717995706197</v>
       </c>
     </row>
-    <row r="61" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="28" t="s">
         <v>48</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>18.759718532182301</v>
       </c>
     </row>
-    <row r="62" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="46" t="s">
         <v>48</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>13.8624517414686</v>
       </c>
     </row>
-    <row r="63" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="46" t="s">
         <v>48</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>20.319336440955301</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="55" t="s">
         <v>48</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>20.0482083604956</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="55" t="s">
         <v>48</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>12.6480283688394</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="55" t="s">
         <v>48</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>18.9271871051807</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="55" t="s">
         <v>48</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>11.7691329606472</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="55" t="s">
         <v>48</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>19.580589443959401</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="55" t="s">
         <v>48</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>8.4128514076626892</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="55" t="s">
         <v>48</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>8.4588017723332793</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="55" t="s">
         <v>48</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>18.759718532182301</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="55" t="s">
         <v>48</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>8.7011963347005707</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="55" t="s">
         <v>48</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>10.236311017576099</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="55" t="s">
         <v>48</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>20.487630928762901</v>
       </c>
     </row>
-    <row r="75" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="55" t="s">
         <v>48</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>5.7760557186993902</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="55" t="s">
         <v>48</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>11.8563669414148</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="55" t="s">
         <v>48</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>21.855903493484998</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="55" t="s">
         <v>48</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>43.955204630723401</v>
       </c>
     </row>
-    <row r="79" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="55" t="s">
         <v>48</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>36.827664332340603</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="55" t="s">
         <v>48</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>6.0143229651706802</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="55" t="s">
         <v>48</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>31.275952781289998</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="55" t="s">
         <v>48</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>14.2460623413074</v>
       </c>
     </row>
-    <row r="83" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="55" t="s">
         <v>48</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>19.3782710623491</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="55" t="s">
         <v>48</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>7.2140288091493696</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="55" t="s">
         <v>48</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>8.0031273681729296</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="55" t="s">
         <v>48</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>17.827005586182299</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="55" t="s">
         <v>48</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>13.101064599087699</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="55" t="s">
         <v>48</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>22.448789979987499</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="55" t="s">
         <v>48</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>21.210128639893501</v>
       </c>
     </row>
-    <row r="90" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="55" t="s">
         <v>48</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>42.939639799243103</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="55" t="s">
         <v>48</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>6.9961604423332897</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="55" t="s">
         <v>48</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>7.6212287839818202</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="55" t="s">
         <v>48</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>11.068331006030901</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="55" t="s">
         <v>48</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>28.524289170583</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="55" t="s">
         <v>48</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>5.3560734218251103</v>
       </c>
     </row>
-    <row r="96" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="55" t="s">
         <v>48</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>13.529489132472101</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="55" t="s">
         <v>48</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>12.7202221596892</v>
       </c>
     </row>
-    <row r="98" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="55" t="s">
         <v>48</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>11.619417850698399</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="72"/>
       <c r="B99" s="73"/>
       <c r="C99" s="53"/>
@@ -9276,7 +9276,7 @@
       <c r="Y99" s="53"/>
       <c r="Z99" s="53"/>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>177</v>
       </c>
@@ -9305,7 +9305,7 @@
       <c r="Y100" s="74"/>
       <c r="Z100" s="74"/>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>178</v>
       </c>
@@ -9334,7 +9334,7 @@
       <c r="Y101" s="74"/>
       <c r="Z101" s="74"/>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>179</v>
       </c>
@@ -9363,7 +9363,7 @@
       <c r="Y102" s="74"/>
       <c r="Z102" s="74"/>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>180</v>
       </c>
@@ -9392,7 +9392,7 @@
       <c r="Y103" s="74"/>
       <c r="Z103" s="74"/>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>181</v>
       </c>
@@ -9421,7 +9421,7 @@
       <c r="Y104" s="74"/>
       <c r="Z104" s="74"/>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C105" s="74"/>
       <c r="D105" s="74"/>
       <c r="E105" s="74"/>
@@ -9447,7 +9447,7 @@
       <c r="Y105" s="74"/>
       <c r="Z105" s="74"/>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B106" s="75"/>
       <c r="C106" s="74"/>
       <c r="D106" s="74"/>
@@ -9474,7 +9474,7 @@
       <c r="Y106" s="74"/>
       <c r="Z106" s="74"/>
     </row>
-    <row r="107" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="76" t="s">
         <v>182</v>
       </c>
@@ -9503,7 +9503,7 @@
       <c r="Y107" s="74"/>
       <c r="Z107" s="74"/>
     </row>
-    <row r="108" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="76"/>
       <c r="C108" s="74"/>
       <c r="D108" s="74"/>
@@ -9530,7 +9530,7 @@
       <c r="Y108" s="74"/>
       <c r="Z108" s="74"/>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>184</v>
       </c>
@@ -9559,7 +9559,7 @@
       <c r="Y109" s="74"/>
       <c r="Z109" s="74"/>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>185</v>
       </c>
@@ -9588,7 +9588,7 @@
       <c r="Y110" s="74"/>
       <c r="Z110" s="74"/>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B111" s="78" t="s">
         <v>186</v>
       </c>
@@ -9617,7 +9617,7 @@
       <c r="Y111" s="74"/>
       <c r="Z111" s="74"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>183</v>
       </c>
@@ -9646,7 +9646,7 @@
       <c r="Y112" s="74"/>
       <c r="Z112" s="74"/>
     </row>
-    <row r="113" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="74"/>
       <c r="D113" s="74"/>
@@ -9673,7 +9673,7 @@
       <c r="Y113" s="74"/>
       <c r="Z113" s="74"/>
     </row>
-    <row r="114" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="74"/>
       <c r="D114" s="74"/>
@@ -9702,11 +9702,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{61E3DDD9-2774-4737-A235-5F988DFAF84A}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{DAB1B3D9-7B45-45CE-8336-047E51E17952}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{C7109AB5-C3DD-40F4-BC7A-CB649B0288EA}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{6CDE09B9-5AF6-49DF-8A64-863FB763DB5C}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{FAE12085-7DE7-46FA-A1E0-7AA4D7F1C4E6}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{4488AA04-971D-409C-B6D0-35344D815785}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{96358865-0B1B-499C-B76C-8016F6D911E1}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{3BE3283D-EC75-42F3-8617-72FE570927A0}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{DB907013-9FAC-4377-B225-2C97C97F386A}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{DEC24981-EB97-471D-B2FE-7D7FC5EDB0BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab35.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab35.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7893F5F4-2F5F-45D0-AA06-B02D30961490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61400F58-A2F2-42A9-8C55-CA19DBF6A8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9ACD4744-14E3-46D0-92F7-230FF28EA94C}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{F006E6EA-17AF-4BB7-AF8F-C1A3EC8E70BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab35" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,13 +734,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -904,7 +897,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1124,10 +1117,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1443,7 +1435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB25C5FE-8044-4451-B126-99583BCDCDE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376F8B03-191A-43EE-B183-4C2AF52B8146}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9448,7 +9440,6 @@
       <c r="Z105" s="74"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B106" s="75"/>
       <c r="C106" s="74"/>
       <c r="D106" s="74"/>
       <c r="E106" s="74"/>
@@ -9475,7 +9466,7 @@
       <c r="Z106" s="74"/>
     </row>
     <row r="107" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="76" t="s">
+      <c r="B107" s="75" t="s">
         <v>182</v>
       </c>
       <c r="C107" s="74"/>
@@ -9504,7 +9495,7 @@
       <c r="Z107" s="74"/>
     </row>
     <row r="108" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="76"/>
+      <c r="B108" s="75"/>
       <c r="C108" s="74"/>
       <c r="D108" s="74"/>
       <c r="E108" s="74"/>
@@ -9589,7 +9580,7 @@
       <c r="Z110" s="74"/>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B111" s="78" t="s">
+      <c r="B111" s="76" t="s">
         <v>186</v>
       </c>
       <c r="C111" s="74"/>
@@ -9618,7 +9609,7 @@
       <c r="Z111" s="74"/>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="76" t="s">
         <v>183</v>
       </c>
       <c r="C112" s="74"/>
@@ -9702,11 +9693,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{4488AA04-971D-409C-B6D0-35344D815785}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{96358865-0B1B-499C-B76C-8016F6D911E1}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{3BE3283D-EC75-42F3-8617-72FE570927A0}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{DB907013-9FAC-4377-B225-2C97C97F386A}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{DEC24981-EB97-471D-B2FE-7D7FC5EDB0BA}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{EB4F2A83-DD5E-42AA-8C02-78B095228FDE}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{A50ED8DB-051F-4E11-AE9E-0FACF8A5B5E3}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{99286098-2152-4B89-82E4-50CEE4AFEB75}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{7D8CA21E-98CA-44C6-985F-8A55E1CCEBFE}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{CB78E516-B6AB-431D-AD6A-09952093A608}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab35.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab35.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61400F58-A2F2-42A9-8C55-CA19DBF6A8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAF5D23E-C2FA-4E67-A111-E28CBAB4BFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{F006E6EA-17AF-4BB7-AF8F-C1A3EC8E70BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FCDC1186-82A2-44BC-80C5-3D0164316884}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab35" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="189">
   <si>
     <t>Tableau 35 : Emploi par secteur</t>
   </si>
@@ -504,13 +504,19 @@
     <t>UMA</t>
   </si>
   <si>
+    <t>PALOP</t>
+  </si>
+  <si>
     <t>ASEAN</t>
   </si>
   <si>
     <t>MERCOSUR</t>
   </si>
   <si>
-    <t>EU28</t>
+    <t>EU27</t>
+  </si>
+  <si>
+    <t>OCDE</t>
   </si>
   <si>
     <t xml:space="preserve">Afrique, pays riches en ressources </t>
@@ -766,7 +772,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -891,13 +897,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1095,7 +1138,10 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1106,6 +1152,12 @@
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1435,7 +1487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376F8B03-191A-43EE-B183-4C2AF52B8146}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CC429F-E6E1-4884-9282-76CAE0E40F53}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1447,7 +1499,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="80" bestFit="1" customWidth="1"/>
     <col min="4" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6684,7 +6736,7 @@
       <c r="A67" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B67" s="51" t="s">
+      <c r="B67" s="67" t="s">
         <v>147</v>
       </c>
       <c r="C67" s="60">
@@ -6764,7 +6816,7 @@
       <c r="A68" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B68" s="51" t="s">
+      <c r="B68" s="67" t="s">
         <v>148</v>
       </c>
       <c r="C68" s="60">
@@ -6844,7 +6896,7 @@
       <c r="A69" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B69" s="51" t="s">
+      <c r="B69" s="67" t="s">
         <v>149</v>
       </c>
       <c r="C69" s="60">
@@ -6924,7 +6976,7 @@
       <c r="A70" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B70" s="51" t="s">
+      <c r="B70" s="67" t="s">
         <v>150</v>
       </c>
       <c r="C70" s="60">
@@ -7004,7 +7056,7 @@
       <c r="A71" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="67" t="s">
         <v>151</v>
       </c>
       <c r="C71" s="60">
@@ -7084,7 +7136,7 @@
       <c r="A72" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B72" s="51" t="s">
+      <c r="B72" s="67" t="s">
         <v>152</v>
       </c>
       <c r="C72" s="60">
@@ -7164,7 +7216,7 @@
       <c r="A73" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B73" s="51" t="s">
+      <c r="B73" s="67" t="s">
         <v>153</v>
       </c>
       <c r="C73" s="60">
@@ -7244,8 +7296,8 @@
       <c r="A74" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B74" s="51" t="s">
-        <v>153</v>
+      <c r="B74" s="67" t="s">
+        <v>154</v>
       </c>
       <c r="C74" s="60">
         <v>28837.212</v>
@@ -7324,8 +7376,8 @@
       <c r="A75" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B75" s="51" t="s">
-        <v>154</v>
+      <c r="B75" s="67" t="s">
+        <v>155</v>
       </c>
       <c r="C75" s="52">
         <v>27714.059000000001</v>
@@ -7404,79 +7456,79 @@
       <c r="A76" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B76" s="67" t="s">
-        <v>155</v>
-      </c>
-      <c r="C76" s="68">
+      <c r="B76" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76" s="69">
         <v>329637.571</v>
       </c>
-      <c r="D76" s="69">
+      <c r="D76" s="70">
         <v>10446.599</v>
       </c>
-      <c r="E76" s="69">
+      <c r="E76" s="70">
         <v>20919.881000000001</v>
       </c>
-      <c r="F76" s="69">
+      <c r="F76" s="70">
         <v>12609.156999999999</v>
       </c>
-      <c r="G76" s="69">
+      <c r="G76" s="70">
         <v>15089.67</v>
       </c>
-      <c r="H76" s="69">
+      <c r="H76" s="70">
         <v>72843.433000000005</v>
       </c>
-      <c r="I76" s="69">
+      <c r="I76" s="70">
         <v>38118.43</v>
       </c>
-      <c r="J76" s="69">
+      <c r="J76" s="70">
         <v>27845.734</v>
       </c>
-      <c r="K76" s="70">
+      <c r="K76" s="71">
         <v>131764.66</v>
       </c>
-      <c r="L76" s="69">
+      <c r="L76" s="70">
         <v>304337.03600000002</v>
       </c>
-      <c r="M76" s="69">
+      <c r="M76" s="70">
         <v>69636.304000000004</v>
       </c>
-      <c r="N76" s="69">
+      <c r="N76" s="70">
         <v>197344.21</v>
       </c>
-      <c r="O76" s="70">
+      <c r="O76" s="71">
         <v>34940.703999999998</v>
       </c>
-      <c r="P76" s="68">
+      <c r="P76" s="69">
         <v>3.3111683700785499</v>
       </c>
-      <c r="Q76" s="69">
+      <c r="Q76" s="70">
         <v>6.2407526273261498</v>
       </c>
-      <c r="R76" s="69">
+      <c r="R76" s="70">
         <v>3.76847623844772</v>
       </c>
-      <c r="S76" s="69">
+      <c r="S76" s="70">
         <v>4.6595516302143398</v>
       </c>
-      <c r="T76" s="69">
+      <c r="T76" s="70">
         <v>22.151361536060801</v>
       </c>
-      <c r="U76" s="69">
+      <c r="U76" s="70">
         <v>11.3824733535946</v>
       </c>
-      <c r="V76" s="69">
+      <c r="V76" s="70">
         <v>8.2625450296117293</v>
       </c>
-      <c r="W76" s="70">
+      <c r="W76" s="71">
         <v>40.223671214666197</v>
       </c>
-      <c r="X76" s="69">
+      <c r="X76" s="70">
         <v>22.8561793412896</v>
       </c>
-      <c r="Y76" s="69">
+      <c r="Y76" s="70">
         <v>64.557316945689394</v>
       </c>
-      <c r="Z76" s="70">
+      <c r="Z76" s="71">
         <v>11.8563669414148</v>
       </c>
     </row>
@@ -7484,8 +7536,8 @@
       <c r="A77" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B77" s="51" t="s">
-        <v>156</v>
+      <c r="B77" s="67" t="s">
+        <v>157</v>
       </c>
       <c r="C77" s="60">
         <v>197701.50200000001</v>
@@ -7564,8 +7616,8 @@
       <c r="A78" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B78" s="51" t="s">
-        <v>156</v>
+      <c r="B78" s="67" t="s">
+        <v>158</v>
       </c>
       <c r="C78" s="60">
         <v>206741.228</v>
@@ -7644,8 +7696,8 @@
       <c r="A79" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B79" s="63" t="s">
-        <v>157</v>
+      <c r="B79" s="72" t="s">
+        <v>159</v>
       </c>
       <c r="C79" s="64">
         <v>656509.83400000003</v>
@@ -7725,7 +7777,7 @@
         <v>48</v>
       </c>
       <c r="B80" s="51" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C80" s="60">
         <v>39446.841999999997</v>
@@ -7805,7 +7857,7 @@
         <v>48</v>
       </c>
       <c r="B81" s="51" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C81" s="60">
         <v>195939.266</v>
@@ -7885,7 +7937,7 @@
         <v>48</v>
       </c>
       <c r="B82" s="51" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C82" s="60">
         <v>458499.54399999999</v>
@@ -7965,7 +8017,7 @@
         <v>48</v>
       </c>
       <c r="B83" s="51" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C83" s="52">
         <v>2694107.449</v>
@@ -8044,79 +8096,79 @@
       <c r="A84" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B84" s="67" t="s">
-        <v>162</v>
-      </c>
-      <c r="C84" s="68">
+      <c r="B84" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="C84" s="69">
         <v>216779.21599999999</v>
       </c>
-      <c r="D84" s="69">
+      <c r="D84" s="70">
         <v>2868.9079999999999</v>
       </c>
-      <c r="E84" s="69">
+      <c r="E84" s="70">
         <v>8088.6289999999999</v>
       </c>
-      <c r="F84" s="69">
+      <c r="F84" s="70">
         <v>4261.5200000000004</v>
       </c>
-      <c r="G84" s="69">
+      <c r="G84" s="70">
         <v>1771.691</v>
       </c>
-      <c r="H84" s="69">
+      <c r="H84" s="70">
         <v>28116.261999999999</v>
       </c>
-      <c r="I84" s="69">
+      <c r="I84" s="70">
         <v>14012.356</v>
       </c>
-      <c r="J84" s="69">
+      <c r="J84" s="70">
         <v>5370.87</v>
       </c>
-      <c r="K84" s="70">
+      <c r="K84" s="71">
         <v>152288.97700000001</v>
       </c>
-      <c r="L84" s="69">
+      <c r="L84" s="70">
         <v>138578.25</v>
       </c>
-      <c r="M84" s="69">
+      <c r="M84" s="70">
         <v>21292.656999999999</v>
       </c>
-      <c r="N84" s="69">
+      <c r="N84" s="70">
         <v>105841.95600000001</v>
       </c>
-      <c r="O84" s="70">
+      <c r="O84" s="71">
         <v>8553.482</v>
       </c>
-      <c r="P84" s="68">
+      <c r="P84" s="69">
         <v>1.5946865478571599</v>
       </c>
-      <c r="Q84" s="69">
+      <c r="Q84" s="70">
         <v>4.2952206701849702</v>
       </c>
-      <c r="R84" s="69">
+      <c r="R84" s="70">
         <v>2.1363688767201499</v>
       </c>
-      <c r="S84" s="69">
+      <c r="S84" s="70">
         <v>0.89626084570273001</v>
       </c>
-      <c r="T84" s="69">
+      <c r="T84" s="70">
         <v>12.9875260756353</v>
       </c>
-      <c r="U84" s="69">
+      <c r="U84" s="70">
         <v>6.66877258700372</v>
       </c>
-      <c r="V84" s="69">
+      <c r="V84" s="70">
         <v>2.6378828372705998</v>
       </c>
-      <c r="W84" s="70">
+      <c r="W84" s="71">
         <v>68.783281559625294</v>
       </c>
-      <c r="X84" s="69">
+      <c r="X84" s="70">
         <v>15.700519566683299</v>
       </c>
-      <c r="Y84" s="69">
+      <c r="Y84" s="70">
         <v>74.991026353172401</v>
       </c>
-      <c r="Z84" s="70">
+      <c r="Z84" s="71">
         <v>7.2140288091493696</v>
       </c>
     </row>
@@ -8124,8 +8176,8 @@
       <c r="A85" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B85" s="71" t="s">
-        <v>163</v>
+      <c r="B85" s="74" t="s">
+        <v>165</v>
       </c>
       <c r="C85" s="60">
         <v>33352.623</v>
@@ -8205,7 +8257,7 @@
         <v>48</v>
       </c>
       <c r="B86" s="51" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C86" s="60">
         <v>258628.133</v>
@@ -8285,7 +8337,7 @@
         <v>48</v>
       </c>
       <c r="B87" s="51" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C87" s="60">
         <v>913663.64199999999</v>
@@ -8365,7 +8417,7 @@
         <v>48</v>
       </c>
       <c r="B88" s="51" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C88" s="60">
         <v>22539.037</v>
@@ -8445,7 +8497,7 @@
         <v>48</v>
       </c>
       <c r="B89" s="51" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C89" s="60">
         <v>1340641.024</v>
@@ -8525,7 +8577,7 @@
         <v>48</v>
       </c>
       <c r="B90" s="63" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C90" s="64">
         <v>592037.37100000004</v>
@@ -8605,7 +8657,7 @@
         <v>48</v>
       </c>
       <c r="B91" s="51" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C91" s="60">
         <v>281257.40700000001</v>
@@ -8685,7 +8737,7 @@
         <v>48</v>
       </c>
       <c r="B92" s="51" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C92" s="60">
         <v>130756.05100000001</v>
@@ -8765,7 +8817,7 @@
         <v>48</v>
       </c>
       <c r="B93" s="51" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C93" s="60">
         <v>1744.338</v>
@@ -8845,7 +8897,7 @@
         <v>48</v>
       </c>
       <c r="B94" s="51" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C94" s="60">
         <v>26189.062999999998</v>
@@ -8925,7 +8977,7 @@
         <v>48</v>
       </c>
       <c r="B95" s="51" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C95" s="60">
         <v>143807.674</v>
@@ -9005,7 +9057,7 @@
         <v>48</v>
       </c>
       <c r="B96" s="51" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C96" s="52">
         <v>67174.278999999995</v>
@@ -9084,79 +9136,79 @@
       <c r="A97" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B97" s="67" t="s">
-        <v>175</v>
-      </c>
-      <c r="C97" s="68">
+      <c r="B97" s="73" t="s">
+        <v>177</v>
+      </c>
+      <c r="C97" s="69">
         <v>322476.18199999997</v>
       </c>
-      <c r="D97" s="69">
+      <c r="D97" s="70">
         <v>4638.1750000000002</v>
       </c>
-      <c r="E97" s="69">
+      <c r="E97" s="70">
         <v>15274.538</v>
       </c>
-      <c r="F97" s="69">
+      <c r="F97" s="70">
         <v>21407.047999999999</v>
       </c>
-      <c r="G97" s="69">
+      <c r="G97" s="70">
         <v>2807.3150000000001</v>
       </c>
-      <c r="H97" s="69">
+      <c r="H97" s="70">
         <v>43439.283000000003</v>
       </c>
-      <c r="I97" s="69">
+      <c r="I97" s="70">
         <v>30307.99</v>
       </c>
-      <c r="J97" s="69">
+      <c r="J97" s="70">
         <v>11053.34</v>
       </c>
-      <c r="K97" s="70">
+      <c r="K97" s="71">
         <v>193548.492</v>
       </c>
-      <c r="L97" s="69">
+      <c r="L97" s="70">
         <v>217415.965</v>
       </c>
-      <c r="M97" s="69">
+      <c r="M97" s="70">
         <v>30793.776999999998</v>
       </c>
-      <c r="N97" s="69">
+      <c r="N97" s="70">
         <v>149529.94699999999</v>
       </c>
-      <c r="O97" s="70">
+      <c r="O97" s="71">
         <v>26809.251</v>
       </c>
-      <c r="P97" s="68">
+      <c r="P97" s="69">
         <v>1.4650038153506799</v>
       </c>
-      <c r="Q97" s="69">
+      <c r="Q97" s="70">
         <v>5.0480254962978401</v>
       </c>
-      <c r="R97" s="69">
+      <c r="R97" s="70">
         <v>7.5521894812043797</v>
       </c>
-      <c r="S97" s="69">
+      <c r="S97" s="70">
         <v>0.89510727709760995</v>
       </c>
-      <c r="T97" s="69">
+      <c r="T97" s="70">
         <v>13.6166395334465</v>
       </c>
-      <c r="U97" s="69">
+      <c r="U97" s="70">
         <v>9.8393669792919898</v>
       </c>
-      <c r="V97" s="69">
+      <c r="V97" s="70">
         <v>3.5594049937290801</v>
       </c>
-      <c r="W97" s="70">
+      <c r="W97" s="71">
         <v>58.024262423582002</v>
       </c>
-      <c r="X97" s="69">
+      <c r="X97" s="70">
         <v>13.5159398205555</v>
       </c>
-      <c r="Y97" s="69">
+      <c r="Y97" s="70">
         <v>67.141124316647307</v>
       </c>
-      <c r="Z97" s="70">
+      <c r="Z97" s="71">
         <v>12.7202221596892</v>
       </c>
     </row>
@@ -9165,7 +9217,7 @@
         <v>48</v>
       </c>
       <c r="B98" s="63" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C98" s="64">
         <v>253594.52600000001</v>
@@ -9241,8 +9293,8 @@
       </c>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A99" s="72"/>
-      <c r="B99" s="73"/>
+      <c r="A99" s="75"/>
+      <c r="B99" s="76"/>
       <c r="C99" s="53"/>
       <c r="D99" s="53"/>
       <c r="E99" s="53"/>
@@ -9270,434 +9322,434 @@
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C100" s="74"/>
-      <c r="D100" s="74"/>
-      <c r="E100" s="74"/>
-      <c r="F100" s="74"/>
-      <c r="G100" s="74"/>
-      <c r="H100" s="74"/>
-      <c r="I100" s="74"/>
-      <c r="J100" s="74"/>
-      <c r="K100" s="74"/>
-      <c r="L100" s="74"/>
-      <c r="M100" s="74"/>
-      <c r="N100" s="74"/>
-      <c r="O100" s="74"/>
-      <c r="P100" s="74"/>
-      <c r="Q100" s="74"/>
-      <c r="R100" s="74"/>
-      <c r="S100" s="74"/>
-      <c r="T100" s="74"/>
-      <c r="U100" s="74"/>
-      <c r="V100" s="74"/>
-      <c r="W100" s="74"/>
-      <c r="X100" s="74"/>
-      <c r="Y100" s="74"/>
-      <c r="Z100" s="74"/>
+        <v>179</v>
+      </c>
+      <c r="C100" s="77"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="77"/>
+      <c r="H100" s="77"/>
+      <c r="I100" s="77"/>
+      <c r="J100" s="77"/>
+      <c r="K100" s="77"/>
+      <c r="L100" s="77"/>
+      <c r="M100" s="77"/>
+      <c r="N100" s="77"/>
+      <c r="O100" s="77"/>
+      <c r="P100" s="77"/>
+      <c r="Q100" s="77"/>
+      <c r="R100" s="77"/>
+      <c r="S100" s="77"/>
+      <c r="T100" s="77"/>
+      <c r="U100" s="77"/>
+      <c r="V100" s="77"/>
+      <c r="W100" s="77"/>
+      <c r="X100" s="77"/>
+      <c r="Y100" s="77"/>
+      <c r="Z100" s="77"/>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C101" s="74"/>
-      <c r="D101" s="74"/>
-      <c r="E101" s="74"/>
-      <c r="F101" s="74"/>
-      <c r="G101" s="74"/>
-      <c r="H101" s="74"/>
-      <c r="I101" s="74"/>
-      <c r="J101" s="74"/>
-      <c r="K101" s="74"/>
-      <c r="L101" s="74"/>
-      <c r="M101" s="74"/>
-      <c r="N101" s="74"/>
-      <c r="O101" s="74"/>
-      <c r="P101" s="74"/>
-      <c r="Q101" s="74"/>
-      <c r="R101" s="74"/>
-      <c r="S101" s="74"/>
-      <c r="T101" s="74"/>
-      <c r="U101" s="74"/>
-      <c r="V101" s="74"/>
-      <c r="W101" s="74"/>
-      <c r="X101" s="74"/>
-      <c r="Y101" s="74"/>
-      <c r="Z101" s="74"/>
+        <v>180</v>
+      </c>
+      <c r="C101" s="77"/>
+      <c r="D101" s="77"/>
+      <c r="E101" s="77"/>
+      <c r="F101" s="77"/>
+      <c r="G101" s="77"/>
+      <c r="H101" s="77"/>
+      <c r="I101" s="77"/>
+      <c r="J101" s="77"/>
+      <c r="K101" s="77"/>
+      <c r="L101" s="77"/>
+      <c r="M101" s="77"/>
+      <c r="N101" s="77"/>
+      <c r="O101" s="77"/>
+      <c r="P101" s="77"/>
+      <c r="Q101" s="77"/>
+      <c r="R101" s="77"/>
+      <c r="S101" s="77"/>
+      <c r="T101" s="77"/>
+      <c r="U101" s="77"/>
+      <c r="V101" s="77"/>
+      <c r="W101" s="77"/>
+      <c r="X101" s="77"/>
+      <c r="Y101" s="77"/>
+      <c r="Z101" s="77"/>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C102" s="74"/>
-      <c r="D102" s="74"/>
-      <c r="E102" s="74"/>
-      <c r="F102" s="74"/>
-      <c r="G102" s="74"/>
-      <c r="H102" s="74"/>
-      <c r="I102" s="74"/>
-      <c r="J102" s="74"/>
-      <c r="K102" s="74"/>
-      <c r="L102" s="74"/>
-      <c r="M102" s="74"/>
-      <c r="N102" s="74"/>
-      <c r="O102" s="74"/>
-      <c r="P102" s="74"/>
-      <c r="Q102" s="74"/>
-      <c r="R102" s="74"/>
-      <c r="S102" s="74"/>
-      <c r="T102" s="74"/>
-      <c r="U102" s="74"/>
-      <c r="V102" s="74"/>
-      <c r="W102" s="74"/>
-      <c r="X102" s="74"/>
-      <c r="Y102" s="74"/>
-      <c r="Z102" s="74"/>
+        <v>181</v>
+      </c>
+      <c r="C102" s="77"/>
+      <c r="D102" s="77"/>
+      <c r="E102" s="77"/>
+      <c r="F102" s="77"/>
+      <c r="G102" s="77"/>
+      <c r="H102" s="77"/>
+      <c r="I102" s="77"/>
+      <c r="J102" s="77"/>
+      <c r="K102" s="77"/>
+      <c r="L102" s="77"/>
+      <c r="M102" s="77"/>
+      <c r="N102" s="77"/>
+      <c r="O102" s="77"/>
+      <c r="P102" s="77"/>
+      <c r="Q102" s="77"/>
+      <c r="R102" s="77"/>
+      <c r="S102" s="77"/>
+      <c r="T102" s="77"/>
+      <c r="U102" s="77"/>
+      <c r="V102" s="77"/>
+      <c r="W102" s="77"/>
+      <c r="X102" s="77"/>
+      <c r="Y102" s="77"/>
+      <c r="Z102" s="77"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C103" s="74"/>
-      <c r="D103" s="74"/>
-      <c r="E103" s="74"/>
-      <c r="F103" s="74"/>
-      <c r="G103" s="74"/>
-      <c r="H103" s="74"/>
-      <c r="I103" s="74"/>
-      <c r="J103" s="74"/>
-      <c r="K103" s="74"/>
-      <c r="L103" s="74"/>
-      <c r="M103" s="74"/>
-      <c r="N103" s="74"/>
-      <c r="O103" s="74"/>
-      <c r="P103" s="74"/>
-      <c r="Q103" s="74"/>
-      <c r="R103" s="74"/>
-      <c r="S103" s="74"/>
-      <c r="T103" s="74"/>
-      <c r="U103" s="74"/>
-      <c r="V103" s="74"/>
-      <c r="W103" s="74"/>
-      <c r="X103" s="74"/>
-      <c r="Y103" s="74"/>
-      <c r="Z103" s="74"/>
+        <v>182</v>
+      </c>
+      <c r="C103" s="77"/>
+      <c r="D103" s="77"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="77"/>
+      <c r="G103" s="77"/>
+      <c r="H103" s="77"/>
+      <c r="I103" s="77"/>
+      <c r="J103" s="77"/>
+      <c r="K103" s="77"/>
+      <c r="L103" s="77"/>
+      <c r="M103" s="77"/>
+      <c r="N103" s="77"/>
+      <c r="O103" s="77"/>
+      <c r="P103" s="77"/>
+      <c r="Q103" s="77"/>
+      <c r="R103" s="77"/>
+      <c r="S103" s="77"/>
+      <c r="T103" s="77"/>
+      <c r="U103" s="77"/>
+      <c r="V103" s="77"/>
+      <c r="W103" s="77"/>
+      <c r="X103" s="77"/>
+      <c r="Y103" s="77"/>
+      <c r="Z103" s="77"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C104" s="74"/>
-      <c r="D104" s="74"/>
-      <c r="E104" s="74"/>
-      <c r="F104" s="74"/>
-      <c r="G104" s="74"/>
-      <c r="H104" s="74"/>
-      <c r="I104" s="74"/>
-      <c r="J104" s="74"/>
-      <c r="K104" s="74"/>
-      <c r="L104" s="74"/>
-      <c r="M104" s="74"/>
-      <c r="N104" s="74"/>
-      <c r="O104" s="74"/>
-      <c r="P104" s="74"/>
-      <c r="Q104" s="74"/>
-      <c r="R104" s="74"/>
-      <c r="S104" s="74"/>
-      <c r="T104" s="74"/>
-      <c r="U104" s="74"/>
-      <c r="V104" s="74"/>
-      <c r="W104" s="74"/>
-      <c r="X104" s="74"/>
-      <c r="Y104" s="74"/>
-      <c r="Z104" s="74"/>
+        <v>183</v>
+      </c>
+      <c r="C104" s="77"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="77"/>
+      <c r="G104" s="77"/>
+      <c r="H104" s="77"/>
+      <c r="I104" s="77"/>
+      <c r="J104" s="77"/>
+      <c r="K104" s="77"/>
+      <c r="L104" s="77"/>
+      <c r="M104" s="77"/>
+      <c r="N104" s="77"/>
+      <c r="O104" s="77"/>
+      <c r="P104" s="77"/>
+      <c r="Q104" s="77"/>
+      <c r="R104" s="77"/>
+      <c r="S104" s="77"/>
+      <c r="T104" s="77"/>
+      <c r="U104" s="77"/>
+      <c r="V104" s="77"/>
+      <c r="W104" s="77"/>
+      <c r="X104" s="77"/>
+      <c r="Y104" s="77"/>
+      <c r="Z104" s="77"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C105" s="74"/>
-      <c r="D105" s="74"/>
-      <c r="E105" s="74"/>
-      <c r="F105" s="74"/>
-      <c r="G105" s="74"/>
-      <c r="H105" s="74"/>
-      <c r="I105" s="74"/>
-      <c r="J105" s="74"/>
-      <c r="K105" s="74"/>
-      <c r="L105" s="74"/>
-      <c r="M105" s="74"/>
-      <c r="N105" s="74"/>
-      <c r="O105" s="74"/>
-      <c r="P105" s="74"/>
-      <c r="Q105" s="74"/>
-      <c r="R105" s="74"/>
-      <c r="S105" s="74"/>
-      <c r="T105" s="74"/>
-      <c r="U105" s="74"/>
-      <c r="V105" s="74"/>
-      <c r="W105" s="74"/>
-      <c r="X105" s="74"/>
-      <c r="Y105" s="74"/>
-      <c r="Z105" s="74"/>
+      <c r="C105" s="77"/>
+      <c r="D105" s="77"/>
+      <c r="E105" s="77"/>
+      <c r="F105" s="77"/>
+      <c r="G105" s="77"/>
+      <c r="H105" s="77"/>
+      <c r="I105" s="77"/>
+      <c r="J105" s="77"/>
+      <c r="K105" s="77"/>
+      <c r="L105" s="77"/>
+      <c r="M105" s="77"/>
+      <c r="N105" s="77"/>
+      <c r="O105" s="77"/>
+      <c r="P105" s="77"/>
+      <c r="Q105" s="77"/>
+      <c r="R105" s="77"/>
+      <c r="S105" s="77"/>
+      <c r="T105" s="77"/>
+      <c r="U105" s="77"/>
+      <c r="V105" s="77"/>
+      <c r="W105" s="77"/>
+      <c r="X105" s="77"/>
+      <c r="Y105" s="77"/>
+      <c r="Z105" s="77"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C106" s="74"/>
-      <c r="D106" s="74"/>
-      <c r="E106" s="74"/>
-      <c r="F106" s="74"/>
-      <c r="G106" s="74"/>
-      <c r="H106" s="74"/>
-      <c r="I106" s="74"/>
-      <c r="J106" s="74"/>
-      <c r="K106" s="74"/>
-      <c r="L106" s="74"/>
-      <c r="M106" s="74"/>
-      <c r="N106" s="74"/>
-      <c r="O106" s="74"/>
-      <c r="P106" s="74"/>
-      <c r="Q106" s="74"/>
-      <c r="R106" s="74"/>
-      <c r="S106" s="74"/>
-      <c r="T106" s="74"/>
-      <c r="U106" s="74"/>
-      <c r="V106" s="74"/>
-      <c r="W106" s="74"/>
-      <c r="X106" s="74"/>
-      <c r="Y106" s="74"/>
-      <c r="Z106" s="74"/>
+      <c r="C106" s="77"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="77"/>
+      <c r="F106" s="77"/>
+      <c r="G106" s="77"/>
+      <c r="H106" s="77"/>
+      <c r="I106" s="77"/>
+      <c r="J106" s="77"/>
+      <c r="K106" s="77"/>
+      <c r="L106" s="77"/>
+      <c r="M106" s="77"/>
+      <c r="N106" s="77"/>
+      <c r="O106" s="77"/>
+      <c r="P106" s="77"/>
+      <c r="Q106" s="77"/>
+      <c r="R106" s="77"/>
+      <c r="S106" s="77"/>
+      <c r="T106" s="77"/>
+      <c r="U106" s="77"/>
+      <c r="V106" s="77"/>
+      <c r="W106" s="77"/>
+      <c r="X106" s="77"/>
+      <c r="Y106" s="77"/>
+      <c r="Z106" s="77"/>
     </row>
     <row r="107" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="75" t="s">
-        <v>182</v>
-      </c>
-      <c r="C107" s="74"/>
-      <c r="D107" s="74"/>
-      <c r="E107" s="74"/>
-      <c r="F107" s="74"/>
-      <c r="G107" s="74"/>
-      <c r="H107" s="74"/>
-      <c r="I107" s="74"/>
-      <c r="J107" s="74"/>
-      <c r="K107" s="74"/>
-      <c r="L107" s="74"/>
-      <c r="M107" s="74"/>
-      <c r="N107" s="74"/>
-      <c r="O107" s="74"/>
-      <c r="P107" s="74"/>
-      <c r="Q107" s="74"/>
-      <c r="R107" s="74"/>
-      <c r="S107" s="74"/>
-      <c r="T107" s="74"/>
-      <c r="U107" s="74"/>
-      <c r="V107" s="74"/>
-      <c r="W107" s="74"/>
-      <c r="X107" s="74"/>
-      <c r="Y107" s="74"/>
-      <c r="Z107" s="74"/>
+      <c r="B107" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="C107" s="77"/>
+      <c r="D107" s="77"/>
+      <c r="E107" s="77"/>
+      <c r="F107" s="77"/>
+      <c r="G107" s="77"/>
+      <c r="H107" s="77"/>
+      <c r="I107" s="77"/>
+      <c r="J107" s="77"/>
+      <c r="K107" s="77"/>
+      <c r="L107" s="77"/>
+      <c r="M107" s="77"/>
+      <c r="N107" s="77"/>
+      <c r="O107" s="77"/>
+      <c r="P107" s="77"/>
+      <c r="Q107" s="77"/>
+      <c r="R107" s="77"/>
+      <c r="S107" s="77"/>
+      <c r="T107" s="77"/>
+      <c r="U107" s="77"/>
+      <c r="V107" s="77"/>
+      <c r="W107" s="77"/>
+      <c r="X107" s="77"/>
+      <c r="Y107" s="77"/>
+      <c r="Z107" s="77"/>
     </row>
     <row r="108" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="75"/>
-      <c r="C108" s="74"/>
-      <c r="D108" s="74"/>
-      <c r="E108" s="74"/>
-      <c r="F108" s="74"/>
-      <c r="G108" s="74"/>
-      <c r="H108" s="74"/>
-      <c r="I108" s="74"/>
-      <c r="J108" s="74"/>
-      <c r="K108" s="74"/>
-      <c r="L108" s="74"/>
-      <c r="M108" s="74"/>
-      <c r="N108" s="74"/>
-      <c r="O108" s="74"/>
-      <c r="P108" s="74"/>
-      <c r="Q108" s="74"/>
-      <c r="R108" s="74"/>
-      <c r="S108" s="74"/>
-      <c r="T108" s="74"/>
-      <c r="U108" s="74"/>
-      <c r="V108" s="74"/>
-      <c r="W108" s="74"/>
-      <c r="X108" s="74"/>
-      <c r="Y108" s="74"/>
-      <c r="Z108" s="74"/>
+      <c r="B108" s="78"/>
+      <c r="C108" s="77"/>
+      <c r="D108" s="77"/>
+      <c r="E108" s="77"/>
+      <c r="F108" s="77"/>
+      <c r="G108" s="77"/>
+      <c r="H108" s="77"/>
+      <c r="I108" s="77"/>
+      <c r="J108" s="77"/>
+      <c r="K108" s="77"/>
+      <c r="L108" s="77"/>
+      <c r="M108" s="77"/>
+      <c r="N108" s="77"/>
+      <c r="O108" s="77"/>
+      <c r="P108" s="77"/>
+      <c r="Q108" s="77"/>
+      <c r="R108" s="77"/>
+      <c r="S108" s="77"/>
+      <c r="T108" s="77"/>
+      <c r="U108" s="77"/>
+      <c r="V108" s="77"/>
+      <c r="W108" s="77"/>
+      <c r="X108" s="77"/>
+      <c r="Y108" s="77"/>
+      <c r="Z108" s="77"/>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C109" s="74"/>
-      <c r="D109" s="74"/>
-      <c r="E109" s="74"/>
-      <c r="F109" s="74"/>
-      <c r="G109" s="74"/>
-      <c r="H109" s="74"/>
-      <c r="I109" s="74"/>
-      <c r="J109" s="74"/>
-      <c r="K109" s="74"/>
-      <c r="L109" s="74"/>
-      <c r="M109" s="74"/>
-      <c r="N109" s="74"/>
-      <c r="O109" s="74"/>
-      <c r="P109" s="74"/>
-      <c r="Q109" s="74"/>
-      <c r="R109" s="74"/>
-      <c r="S109" s="74"/>
-      <c r="T109" s="74"/>
-      <c r="U109" s="74"/>
-      <c r="V109" s="74"/>
-      <c r="W109" s="74"/>
-      <c r="X109" s="74"/>
-      <c r="Y109" s="74"/>
-      <c r="Z109" s="74"/>
+        <v>186</v>
+      </c>
+      <c r="C109" s="77"/>
+      <c r="D109" s="77"/>
+      <c r="E109" s="77"/>
+      <c r="F109" s="77"/>
+      <c r="G109" s="77"/>
+      <c r="H109" s="77"/>
+      <c r="I109" s="77"/>
+      <c r="J109" s="77"/>
+      <c r="K109" s="77"/>
+      <c r="L109" s="77"/>
+      <c r="M109" s="77"/>
+      <c r="N109" s="77"/>
+      <c r="O109" s="77"/>
+      <c r="P109" s="77"/>
+      <c r="Q109" s="77"/>
+      <c r="R109" s="77"/>
+      <c r="S109" s="77"/>
+      <c r="T109" s="77"/>
+      <c r="U109" s="77"/>
+      <c r="V109" s="77"/>
+      <c r="W109" s="77"/>
+      <c r="X109" s="77"/>
+      <c r="Y109" s="77"/>
+      <c r="Z109" s="77"/>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C110" s="77"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="77"/>
+      <c r="F110" s="77"/>
+      <c r="G110" s="77"/>
+      <c r="H110" s="77"/>
+      <c r="I110" s="77"/>
+      <c r="J110" s="77"/>
+      <c r="K110" s="77"/>
+      <c r="L110" s="77"/>
+      <c r="M110" s="77"/>
+      <c r="N110" s="77"/>
+      <c r="O110" s="77"/>
+      <c r="P110" s="77"/>
+      <c r="Q110" s="77"/>
+      <c r="R110" s="77"/>
+      <c r="S110" s="77"/>
+      <c r="T110" s="77"/>
+      <c r="U110" s="77"/>
+      <c r="V110" s="77"/>
+      <c r="W110" s="77"/>
+      <c r="X110" s="77"/>
+      <c r="Y110" s="77"/>
+      <c r="Z110" s="77"/>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B111" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="C111" s="77"/>
+      <c r="D111" s="77"/>
+      <c r="E111" s="77"/>
+      <c r="F111" s="77"/>
+      <c r="G111" s="77"/>
+      <c r="H111" s="77"/>
+      <c r="I111" s="77"/>
+      <c r="J111" s="77"/>
+      <c r="K111" s="77"/>
+      <c r="L111" s="77"/>
+      <c r="M111" s="77"/>
+      <c r="N111" s="77"/>
+      <c r="O111" s="77"/>
+      <c r="P111" s="77"/>
+      <c r="Q111" s="77"/>
+      <c r="R111" s="77"/>
+      <c r="S111" s="77"/>
+      <c r="T111" s="77"/>
+      <c r="U111" s="77"/>
+      <c r="V111" s="77"/>
+      <c r="W111" s="77"/>
+      <c r="X111" s="77"/>
+      <c r="Y111" s="77"/>
+      <c r="Z111" s="77"/>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B112" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="C110" s="74"/>
-      <c r="D110" s="74"/>
-      <c r="E110" s="74"/>
-      <c r="F110" s="74"/>
-      <c r="G110" s="74"/>
-      <c r="H110" s="74"/>
-      <c r="I110" s="74"/>
-      <c r="J110" s="74"/>
-      <c r="K110" s="74"/>
-      <c r="L110" s="74"/>
-      <c r="M110" s="74"/>
-      <c r="N110" s="74"/>
-      <c r="O110" s="74"/>
-      <c r="P110" s="74"/>
-      <c r="Q110" s="74"/>
-      <c r="R110" s="74"/>
-      <c r="S110" s="74"/>
-      <c r="T110" s="74"/>
-      <c r="U110" s="74"/>
-      <c r="V110" s="74"/>
-      <c r="W110" s="74"/>
-      <c r="X110" s="74"/>
-      <c r="Y110" s="74"/>
-      <c r="Z110" s="74"/>
-    </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B111" s="76" t="s">
-        <v>186</v>
-      </c>
-      <c r="C111" s="74"/>
-      <c r="D111" s="74"/>
-      <c r="E111" s="74"/>
-      <c r="F111" s="74"/>
-      <c r="G111" s="74"/>
-      <c r="H111" s="74"/>
-      <c r="I111" s="74"/>
-      <c r="J111" s="74"/>
-      <c r="K111" s="74"/>
-      <c r="L111" s="74"/>
-      <c r="M111" s="74"/>
-      <c r="N111" s="74"/>
-      <c r="O111" s="74"/>
-      <c r="P111" s="74"/>
-      <c r="Q111" s="74"/>
-      <c r="R111" s="74"/>
-      <c r="S111" s="74"/>
-      <c r="T111" s="74"/>
-      <c r="U111" s="74"/>
-      <c r="V111" s="74"/>
-      <c r="W111" s="74"/>
-      <c r="X111" s="74"/>
-      <c r="Y111" s="74"/>
-      <c r="Z111" s="74"/>
-    </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B112" s="76" t="s">
-        <v>183</v>
-      </c>
-      <c r="C112" s="74"/>
-      <c r="D112" s="74"/>
-      <c r="E112" s="74"/>
-      <c r="F112" s="74"/>
-      <c r="G112" s="74"/>
-      <c r="H112" s="74"/>
-      <c r="I112" s="74"/>
-      <c r="J112" s="74"/>
-      <c r="K112" s="74"/>
-      <c r="L112" s="74"/>
-      <c r="M112" s="74"/>
-      <c r="N112" s="74"/>
-      <c r="O112" s="74"/>
-      <c r="P112" s="74"/>
-      <c r="Q112" s="74"/>
-      <c r="R112" s="74"/>
-      <c r="S112" s="74"/>
-      <c r="T112" s="74"/>
-      <c r="U112" s="74"/>
-      <c r="V112" s="74"/>
-      <c r="W112" s="74"/>
-      <c r="X112" s="74"/>
-      <c r="Y112" s="74"/>
-      <c r="Z112" s="74"/>
+      <c r="C112" s="77"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="77"/>
+      <c r="F112" s="77"/>
+      <c r="G112" s="77"/>
+      <c r="H112" s="77"/>
+      <c r="I112" s="77"/>
+      <c r="J112" s="77"/>
+      <c r="K112" s="77"/>
+      <c r="L112" s="77"/>
+      <c r="M112" s="77"/>
+      <c r="N112" s="77"/>
+      <c r="O112" s="77"/>
+      <c r="P112" s="77"/>
+      <c r="Q112" s="77"/>
+      <c r="R112" s="77"/>
+      <c r="S112" s="77"/>
+      <c r="T112" s="77"/>
+      <c r="U112" s="77"/>
+      <c r="V112" s="77"/>
+      <c r="W112" s="77"/>
+      <c r="X112" s="77"/>
+      <c r="Y112" s="77"/>
+      <c r="Z112" s="77"/>
     </row>
     <row r="113" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
-      <c r="C113" s="74"/>
-      <c r="D113" s="74"/>
-      <c r="E113" s="74"/>
-      <c r="F113" s="74"/>
-      <c r="G113" s="74"/>
-      <c r="H113" s="74"/>
-      <c r="I113" s="74"/>
-      <c r="J113" s="74"/>
-      <c r="K113" s="74"/>
-      <c r="L113" s="74"/>
-      <c r="M113" s="74"/>
-      <c r="N113" s="74"/>
-      <c r="O113" s="74"/>
-      <c r="P113" s="74"/>
-      <c r="Q113" s="74"/>
-      <c r="R113" s="74"/>
-      <c r="S113" s="74"/>
-      <c r="T113" s="74"/>
-      <c r="U113" s="74"/>
-      <c r="V113" s="74"/>
-      <c r="W113" s="74"/>
-      <c r="X113" s="74"/>
-      <c r="Y113" s="74"/>
-      <c r="Z113" s="74"/>
+      <c r="C113" s="77"/>
+      <c r="D113" s="77"/>
+      <c r="E113" s="77"/>
+      <c r="F113" s="77"/>
+      <c r="G113" s="77"/>
+      <c r="H113" s="77"/>
+      <c r="I113" s="77"/>
+      <c r="J113" s="77"/>
+      <c r="K113" s="77"/>
+      <c r="L113" s="77"/>
+      <c r="M113" s="77"/>
+      <c r="N113" s="77"/>
+      <c r="O113" s="77"/>
+      <c r="P113" s="77"/>
+      <c r="Q113" s="77"/>
+      <c r="R113" s="77"/>
+      <c r="S113" s="77"/>
+      <c r="T113" s="77"/>
+      <c r="U113" s="77"/>
+      <c r="V113" s="77"/>
+      <c r="W113" s="77"/>
+      <c r="X113" s="77"/>
+      <c r="Y113" s="77"/>
+      <c r="Z113" s="77"/>
     </row>
     <row r="114" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
-      <c r="C114" s="74"/>
-      <c r="D114" s="74"/>
-      <c r="E114" s="74"/>
-      <c r="F114" s="74"/>
-      <c r="G114" s="74"/>
-      <c r="H114" s="74"/>
-      <c r="I114" s="74"/>
-      <c r="J114" s="74"/>
-      <c r="K114" s="74"/>
-      <c r="L114" s="74"/>
-      <c r="M114" s="74"/>
-      <c r="N114" s="74"/>
-      <c r="O114" s="74"/>
-      <c r="P114" s="74"/>
-      <c r="Q114" s="74"/>
-      <c r="R114" s="74"/>
-      <c r="S114" s="74"/>
-      <c r="T114" s="74"/>
-      <c r="U114" s="74"/>
-      <c r="V114" s="74"/>
-      <c r="W114" s="74"/>
-      <c r="X114" s="74"/>
-      <c r="Y114" s="74"/>
-      <c r="Z114" s="74"/>
+      <c r="C114" s="77"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="77"/>
+      <c r="F114" s="77"/>
+      <c r="G114" s="77"/>
+      <c r="H114" s="77"/>
+      <c r="I114" s="77"/>
+      <c r="J114" s="77"/>
+      <c r="K114" s="77"/>
+      <c r="L114" s="77"/>
+      <c r="M114" s="77"/>
+      <c r="N114" s="77"/>
+      <c r="O114" s="77"/>
+      <c r="P114" s="77"/>
+      <c r="Q114" s="77"/>
+      <c r="R114" s="77"/>
+      <c r="S114" s="77"/>
+      <c r="T114" s="77"/>
+      <c r="U114" s="77"/>
+      <c r="V114" s="77"/>
+      <c r="W114" s="77"/>
+      <c r="X114" s="77"/>
+      <c r="Y114" s="77"/>
+      <c r="Z114" s="77"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{EB4F2A83-DD5E-42AA-8C02-78B095228FDE}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{A50ED8DB-051F-4E11-AE9E-0FACF8A5B5E3}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{99286098-2152-4B89-82E4-50CEE4AFEB75}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{7D8CA21E-98CA-44C6-985F-8A55E1CCEBFE}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{CB78E516-B6AB-431D-AD6A-09952093A608}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{15E991BE-AC78-4047-B874-E0B23A46A878}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{55457151-D598-4CA1-89A0-C037704E2348}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{8683237E-60A0-4BCC-B2AD-2102ADC04179}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{3C26ABF9-BE0D-4F25-BF03-65F4C34141B3}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{3A13BCD4-517B-4C6D-B056-8CA755A58BBE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId6"/>
